--- a/data/trans_camb/P2C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.69492638681894</v>
+        <v>11.4219452338345</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.918970324168941</v>
+        <v>-1.34840295286235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.90792909797042</v>
+        <v>-21.96015509819948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.965928522799032</v>
+        <v>8.518737259375882</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.386844720430644</v>
+        <v>-6.573988843012735</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-25.09213571318909</v>
+        <v>-25.00754062534867</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>11.1525304626301</v>
+        <v>11.39547513124591</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.041586605965713</v>
+        <v>-2.581360691254171</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-22.37434873056143</v>
+        <v>-22.15294620001307</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.34296403256603</v>
+        <v>21.40104286478379</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.844656606725862</v>
+        <v>8.268518129595503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-13.32344577395942</v>
+        <v>-13.25412004887074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.47621556564092</v>
+        <v>19.47961750575526</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.893222783250422</v>
+        <v>4.091697935652422</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-16.28413827970778</v>
+        <v>-16.50383937754853</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>18.44429282898564</v>
+        <v>18.77374929794893</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.426886760921342</v>
+        <v>4.492710985559442</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-16.33483103747247</v>
+        <v>-16.08396557223463</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.02822361290756709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.5479946926332828</v>
+        <v>-0.5479946926332827</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4371450244366979</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.323355981008285</v>
+        <v>0.348450564450086</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05711536637518835</v>
+        <v>-0.04102266652684886</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6615153471819252</v>
+        <v>-0.6653341473063987</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2177278464979081</v>
+        <v>0.2098338682421733</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.159272661331886</v>
+        <v>-0.1620132172076329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.616973797634128</v>
+        <v>-0.615728284287489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3068051872502983</v>
+        <v>0.3257893546150606</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08094641232917846</v>
+        <v>-0.07317260755740143</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6190161489600562</v>
+        <v>-0.61636388321665</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.766934656266085</v>
+        <v>0.7484583660389942</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2767332309215186</v>
+        <v>0.2856134492234129</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4617801952631642</v>
+        <v>-0.4631160375001085</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5478734783411592</v>
+        <v>0.5511756639719396</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1091390310149957</v>
+        <v>0.1129438502735306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4629910235174527</v>
+        <v>-0.466992567565873</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5660804609873206</v>
+        <v>0.5885048712165923</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1350483084238143</v>
+        <v>0.1389764475314602</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.497976964974847</v>
+        <v>-0.495787079061866</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>5.864609674827475</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-12.98103692693802</v>
+        <v>-12.98103692693801</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>13.18027004864736</v>
+        <v>13.14156550793102</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.40100677436058</v>
+        <v>-1.415703021303352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.89113924692414</v>
+        <v>-18.06206619772105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.62145263204203</v>
+        <v>16.3785862179968</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.699184179543155</v>
+        <v>3.709293128745943</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-15.52538260138162</v>
+        <v>-15.89229504203189</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.2689631024074</v>
+        <v>15.9898991581481</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.755413414333714</v>
+        <v>2.559214283956857</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-15.91452114933261</v>
+        <v>-16.10826767742292</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.98643072894912</v>
+        <v>22.04451676901273</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.232023383822297</v>
+        <v>7.450613607499225</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-9.9923011381645</v>
+        <v>-10.00570741435762</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.27263256021382</v>
+        <v>25.34181534487441</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.8780180107535</v>
+        <v>12.72107232438462</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.647467898219086</v>
+        <v>-8.086758824594661</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>22.15527208097672</v>
+        <v>22.56626853327468</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.891721836029555</v>
+        <v>8.931591483198803</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.986658468224626</v>
+        <v>-10.13215488225334</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1790496977444979</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3963180615676341</v>
+        <v>-0.3963180615676339</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3899383762509827</v>
+        <v>0.3980551926274089</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04367174839771795</v>
+        <v>-0.04310248670591493</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5519103056300676</v>
+        <v>-0.5545958010786438</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4389683545514462</v>
+        <v>0.4394335449697102</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1002911664063632</v>
+        <v>0.09750658615873804</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4249159111129971</v>
+        <v>-0.4311305551700004</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4770198282816515</v>
+        <v>0.4708261582757378</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07936770979140741</v>
+        <v>0.07927465554982056</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4648674587889868</v>
+        <v>-0.4643768532360765</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7703787526879505</v>
+        <v>0.7773706167749933</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2557543218720368</v>
+        <v>0.2606773515882678</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3523558892221612</v>
+        <v>-0.3495921996430315</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7783074264977355</v>
+        <v>0.7880643293616171</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3923348946559401</v>
+        <v>0.3885467687492545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2436054811255433</v>
+        <v>-0.248912082125522</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7133494315369788</v>
+        <v>0.7313775459495031</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2844483171406022</v>
+        <v>0.2967094692937662</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3241362165359741</v>
+        <v>-0.3251829657669334</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.47220515919295</v>
+        <v>11.12831600464379</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.694595026338465</v>
+        <v>-2.189212103357983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-21.90170920368246</v>
+        <v>-21.32057005603171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14.43840830058991</v>
+        <v>14.38526592586383</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.26257215554552</v>
+        <v>1.394499482001647</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-20.20100598667096</v>
+        <v>-20.0752351676972</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>14.09669709308259</v>
+        <v>14.31288949120226</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9776197135562187</v>
+        <v>0.918523171727059</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-19.5119409240206</v>
+        <v>-19.4977996052639</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.95118262288938</v>
+        <v>21.32651425546239</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.554442923282934</v>
+        <v>7.491072459374924</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-12.76425555311684</v>
+        <v>-12.67860913364773</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25.10496506528116</v>
+        <v>24.68845527128154</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.50190451812283</v>
+        <v>11.90813625777072</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-11.90981691234922</v>
+        <v>-11.49256602818552</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>21.48509718653718</v>
+        <v>21.3208836190619</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.241835566104806</v>
+        <v>8.168763507999243</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-13.20877685894512</v>
+        <v>-13.11919630383349</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.362311861455779</v>
+        <v>0.3615988699165812</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.08755617874712926</v>
+        <v>-0.0685304953568968</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6909771940480155</v>
+        <v>-0.6856183711748879</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3947936300084117</v>
+        <v>0.3919878928299043</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03298007523409747</v>
+        <v>0.03982974099688252</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5588687164738263</v>
+        <v>-0.5557852486469202</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4244991808270596</v>
+        <v>0.4334517917612374</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02921784343138997</v>
+        <v>0.02504331459973415</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5915212961554988</v>
+        <v>-0.5949217126430161</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8285475732602412</v>
+        <v>0.8167358896212357</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2876530988665151</v>
+        <v>0.2992179190410365</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.4823897789459893</v>
+        <v>-0.4817310163350494</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8138633486631173</v>
+        <v>0.7962868767469696</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3719165874043334</v>
+        <v>0.3957604389234921</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3844418004318669</v>
+        <v>-0.3661828029602824</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7360809674161772</v>
+        <v>0.7293835674674142</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2860875187327485</v>
+        <v>0.2731894728838486</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.4506406400237402</v>
+        <v>-0.4475254760457363</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.205920517867929</v>
+        <v>8.557670186576258</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.264533527959783</v>
+        <v>-3.935494814269706</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.99888968030668</v>
+        <v>-18.47973906845085</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.467976025688753</v>
+        <v>9.487320980267532</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.340111872054958</v>
+        <v>-2.138225411033429</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-21.56072427207529</v>
+        <v>-21.62304111183905</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.11091634963856</v>
+        <v>10.05424646015198</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.15537803787576</v>
+        <v>-2.014600894866748</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-18.77184684783682</v>
+        <v>-18.90050080864705</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.8605236795028</v>
+        <v>17.13880192553726</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.011706019771005</v>
+        <v>3.995745880221059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.20848377391464</v>
+        <v>-11.2286544593505</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.76360444548619</v>
+        <v>18.09414298308011</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.593666620964288</v>
+        <v>5.94519572174115</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-14.8476856407337</v>
+        <v>-14.80757228487342</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.20911098172621</v>
+        <v>16.38085089359321</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.661654451744941</v>
+        <v>3.869288814242006</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-13.8261047608968</v>
+        <v>-14.03562968411747</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.03460109648920426</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.5531219719638134</v>
+        <v>-0.5531219719638135</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.284430648571746</v>
+        <v>0.2898945141178976</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1460783408252486</v>
+        <v>-0.1402876129300471</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6341384616916671</v>
+        <v>-0.6351361211496819</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2685692317720761</v>
+        <v>0.2662072954842987</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06916156001601638</v>
+        <v>-0.0591754936543493</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6182608397760807</v>
+        <v>-0.6202644726434727</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3172461668940326</v>
+        <v>0.321153216678149</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06852810662299834</v>
+        <v>-0.064662245343846</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6018137404231527</v>
+        <v>-0.6029355730785293</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6746410560441107</v>
+        <v>0.687645688604948</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1595029192503048</v>
+        <v>0.1607362804403293</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4487735281248587</v>
+        <v>-0.4467403399802161</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5759946730990225</v>
+        <v>0.5880131272527525</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2123484044742869</v>
+        <v>0.2017532316798011</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4854613488149598</v>
+        <v>-0.4784426867675692</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5686524232159508</v>
+        <v>0.5796427882994327</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1312018301030147</v>
+        <v>0.1389717645827898</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4902933015774003</v>
+        <v>-0.4942533415787745</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>4.220076965555069</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-16.50307536784855</v>
+        <v>-16.50307536784856</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>16.36414956668145</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>13.36998397612792</v>
+        <v>13.12765040864703</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.008905682211989736</v>
+        <v>0.03109339426977764</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.63395444958776</v>
+        <v>-17.63402368711197</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14.73067234721598</v>
+        <v>14.84421599456708</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.015604481004652</v>
+        <v>1.966830819942791</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-18.2820680128144</v>
+        <v>-18.53094612914369</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>14.78501677506542</v>
+        <v>14.53707123169209</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.526808707781984</v>
+        <v>1.498308480685782</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-17.4952749184893</v>
+        <v>-17.40081138520693</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>18.15186422863604</v>
+        <v>17.90881990327307</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.375441613737372</v>
+        <v>4.342373671812164</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-13.68718442543779</v>
+        <v>-13.43139142887372</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.32508673112306</v>
+        <v>19.57900559351914</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.594441087697191</v>
+        <v>6.660406441364739</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-14.15683740553921</v>
+        <v>-14.53173179241005</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.13838740976098</v>
+        <v>18.06062273761895</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.878936217008345</v>
+        <v>4.838371445581343</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-14.47334592846571</v>
+        <v>-14.5352704517748</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1222056784668411</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4778987536432474</v>
+        <v>-0.4778987536432475</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5131819505420775</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4458402630335976</v>
+        <v>0.4298996021854449</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0005846717767144754</v>
+        <v>0.001031122275758873</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5841713789684299</v>
+        <v>-0.5842907397390927</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4119068664912525</v>
+        <v>0.4180719647960167</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05748809963382009</v>
+        <v>0.054310117680966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5157600692119817</v>
+        <v>-0.517745602644003</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4524384028759598</v>
+        <v>0.4410353562019593</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.04677055920311252</v>
+        <v>0.04645867143807445</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5341327388532603</v>
+        <v>-0.5310463179007588</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6501368714342169</v>
+        <v>0.6433994111499476</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1572958154084788</v>
+        <v>0.1543313329250214</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4856664342456403</v>
+        <v>-0.4827150051527462</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5772828757869272</v>
+        <v>0.589520179089516</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1992784254456104</v>
+        <v>0.1991400012019419</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4319752993384146</v>
+        <v>-0.4350037398256423</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5873868954382596</v>
+        <v>0.5804612278333221</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1574388214886575</v>
+        <v>0.1566014950447363</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4666849794708889</v>
+        <v>-0.4676668782409984</v>
       </c>
     </row>
     <row r="34">
